--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF51494-A3B3-41C8-8339-3AB32FDBB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21F069-D37F-47FB-89E7-AE660BF3F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Historial_Versiones" sheetId="2" r:id="rId1"/>
+    <sheet name="Product_Backlog" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Product_Backlog!$A$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -112,9 +126,6 @@
     <t>Detalle en HU04</t>
   </si>
   <si>
-    <t>Configuración de un servidor de base de datos</t>
-  </si>
-  <si>
     <t>Detalle en HT-03</t>
   </si>
   <si>
@@ -250,9 +261,6 @@
     <t>Como administrador quiero gestionar los usuarios de atencion a cliente , para poder otorgar permisos para operar los asientos y buses de la actualidad</t>
   </si>
   <si>
-    <t>68 horas</t>
-  </si>
-  <si>
     <t>Detalle en HU02</t>
   </si>
   <si>
@@ -274,9 +282,6 @@
     <t>Como administrador quiero gestionar los buses de mi empresa, para poder administrar las unidades disponibles que tengo para cada ruta</t>
   </si>
   <si>
-    <t>35 horas</t>
-  </si>
-  <si>
     <t>Baja</t>
   </si>
   <si>
@@ -331,9 +336,6 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>20 horas</t>
-  </si>
-  <si>
     <t>30 horas</t>
   </si>
   <si>
@@ -377,13 +379,97 @@
   </si>
   <si>
     <t>Diseño de arquitectura del sistema y selección de frameworks</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>70 horas</t>
+  </si>
+  <si>
+    <t>HT-12</t>
+  </si>
+  <si>
+    <t>Creación de diagrama de procesos</t>
+  </si>
+  <si>
+    <t>Diagrama de procesos</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Detalle en HT-12</t>
+  </si>
+  <si>
+    <t>120 horas</t>
+  </si>
+  <si>
+    <t>140 horas</t>
+  </si>
+  <si>
+    <t>HT-13</t>
+  </si>
+  <si>
+    <t>Creación y generación de documentación del proyecto</t>
+  </si>
+  <si>
+    <t>Documentación del proyecto</t>
+  </si>
+  <si>
+    <t>Detalle en HT-13</t>
+  </si>
+  <si>
+    <t>Configuración de un sistema  de base de datos</t>
+  </si>
+  <si>
+    <t>Historial de Versiones</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Organización</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>ESPOCH</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Bryan Castelo, Cesar Ayala, Jaime Peñaherrera, Milton Coello</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Creación del Product Backlog</t>
+  </si>
+  <si>
+    <t>Correción de tiempos de Product Backlog de Sprint 1-4</t>
+  </si>
+  <si>
+    <t>Correción de Sprint 1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +505,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -507,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -530,11 +637,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -549,9 +697,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,6 +724,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,11 +1044,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AEA66C-C4D5-437E-86D9-F2EF4C45673D}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="40.296875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="29.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="32.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="18">
+        <v>45252</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="18">
+        <v>45255</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="18">
+        <v>45265</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I24"/>
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,24 +1389,24 @@
     <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.3984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.09765625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36.299999999999997" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21.35" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -950,16 +1443,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -976,16 +1469,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>10</v>
@@ -999,19 +1492,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>10</v>
@@ -1021,445 +1514,497 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>24</v>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="9" t="s">
         <v>101</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>20</v>
+      <c r="B14" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>104</v>
+        <v>27</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
+      <c r="B15" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>104</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="G26" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21F069-D37F-47FB-89E7-AE660BF3F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C0B38-CD41-4B96-92EE-244E25B9B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial_Versiones" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Correción de Sprint 1-3</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Actualización estado Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1056,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,13 +1231,23 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="18">
+        <v>45270</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1380,8 +1396,8 @@
   </sheetPr>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1618,7 @@
         <v>118</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
@@ -1877,7 +1893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>75</v>
       </c>
@@ -1903,7 +1919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>84</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>18</v>
       </c>

--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C0B38-CD41-4B96-92EE-244E25B9B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC1A12-CA74-49E4-9133-507F3F95D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Product_Backlog" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Product_Backlog!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Product_Backlog!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -216,12 +216,6 @@
     <t>HT-09</t>
   </si>
   <si>
-    <t>Implementación de pasarela de pagos</t>
-  </si>
-  <si>
-    <t>Pasarela de pagos</t>
-  </si>
-  <si>
     <t>Servidor base de datos</t>
   </si>
   <si>
@@ -469,6 +463,27 @@
   </si>
   <si>
     <t>Actualización estado Sprint 3</t>
+  </si>
+  <si>
+    <t>Implementación de metodo de pago alternativo</t>
+  </si>
+  <si>
+    <t>Metodo de pago</t>
+  </si>
+  <si>
+    <t>Maquetado de interfaces</t>
+  </si>
+  <si>
+    <t>HT-14</t>
+  </si>
+  <si>
+    <t>Detalle en HT-14</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Actualización Product Backlog</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1072,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1147,7 @@
     <row r="6" spans="1:10" ht="32.85" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1146,19 +1161,19 @@
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1171,16 +1186,16 @@
         <v>45252</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1193,16 +1208,16 @@
         <v>45255</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1215,16 +1230,16 @@
         <v>45265</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1237,29 +1252,39 @@
         <v>45270</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="18">
+        <v>45307</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1394,10 +1419,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,12 +1442,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="36.299999999999997" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21.35" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1462,13 +1487,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -1488,13 +1513,13 @@
         <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>10</v>
@@ -1508,19 +1533,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>10</v>
@@ -1534,19 +1559,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1591,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -1583,80 +1608,80 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1670,13 +1695,13 @@
         <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -1687,54 +1712,54 @@
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1748,13 +1773,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>10</v>
@@ -1763,7 +1788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1774,16 +1799,16 @@
         <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -1800,13 +1825,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1851,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>10</v>
@@ -1852,13 +1877,13 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
@@ -1872,155 +1897,181 @@
         <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
-        <v>84</v>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="F27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC1A12-CA74-49E4-9133-507F3F95D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCC8F1-4A88-45E0-BC49-7E7E84FC06BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Product_Backlog" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Product_Backlog!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Product_Backlog!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Detalle en HU05</t>
   </si>
   <si>
-    <t>Validación de boletos personal de atención</t>
-  </si>
-  <si>
     <t>HU03</t>
   </si>
   <si>
@@ -294,12 +291,6 @@
     <t>Elaborado por: Grupo #4</t>
   </si>
   <si>
-    <t>Como personal de atención quiero administrar notificaciones y reportes , para poder informar a los clientes sobre su reservación en el sistema y al administrador</t>
-  </si>
-  <si>
-    <t>Administración de notificaciones y reportes personal de atencion</t>
-  </si>
-  <si>
     <t>HT-11</t>
   </si>
   <si>
@@ -351,12 +342,6 @@
     <t>100 horas</t>
   </si>
   <si>
-    <t>Sprint 9</t>
-  </si>
-  <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
     <t>40 horas</t>
   </si>
   <si>
@@ -484,6 +469,36 @@
   </si>
   <si>
     <t>Actualización Product Backlog</t>
+  </si>
+  <si>
+    <t>Como pasajero quiero notificaciones y reportes , para poder informarme sobre acciones del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración de notificaciones </t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>Como pasajero quiero un chat que me ayude con informacion de la app</t>
+  </si>
+  <si>
+    <t>Chat bot</t>
+  </si>
+  <si>
+    <t>75 horas</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Sprint 9 - 10</t>
+  </si>
+  <si>
+    <t>200 horas</t>
+  </si>
+  <si>
+    <t>Gestion codigo QR</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1162,7 @@
     <row r="6" spans="1:10" ht="32.85" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1161,19 +1176,19 @@
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1186,16 +1201,16 @@
         <v>45252</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1208,16 +1223,16 @@
         <v>45255</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1230,16 +1245,16 @@
         <v>45265</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1252,16 +1267,16 @@
         <v>45270</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1274,16 +1289,16 @@
         <v>45307</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1419,10 +1434,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,12 +1457,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="36.299999999999997" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21.35" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1487,13 +1502,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -1513,13 +1528,13 @@
         <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>10</v>
@@ -1533,19 +1548,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>10</v>
@@ -1559,19 +1574,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -1591,13 +1606,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -1608,54 +1623,54 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,13 +1684,13 @@
         <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
@@ -1695,13 +1710,13 @@
         <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -1712,28 +1727,28 @@
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1747,13 +1762,13 @@
         <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>10</v>
@@ -1773,13 +1788,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>10</v>
@@ -1799,16 +1814,16 @@
         <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -1825,13 +1840,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>10</v>
@@ -1851,13 +1866,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1892,13 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
@@ -1897,22 +1912,22 @@
         <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>60</v>
@@ -1920,158 +1935,184 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="6" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCC8F1-4A88-45E0-BC49-7E7E84FC06BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381DC07-5159-4CA1-A586-EC85DC1CCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Documentacion/Product_Backlog.xlsx
+++ b/Documentacion/Product_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/173d9a5eef9a690d/Documentos/Final de los Finales Documento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381DC07-5159-4CA1-A586-EC85DC1CCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620404B9-857B-4D3B-A2B3-0F0F1149E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial_Versiones" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Código Fuente</t>
   </si>
   <si>
-    <t>Planificado</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -489,16 +486,25 @@
     <t>75 horas</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
-    <t>Sprint 9 - 10</t>
-  </si>
-  <si>
     <t>200 horas</t>
   </si>
   <si>
     <t>Gestion codigo QR</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>HU07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización Sprint 10 y Correción Sprint 7 </t>
+  </si>
+  <si>
+    <t>Actualización Sprint 11 y 12</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +655,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -718,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,6 +787,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1086,17 +1110,17 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="40.296875" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="29.19921875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1162,7 +1186,7 @@
     <row r="6" spans="1:10" ht="32.85" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1176,19 +1200,19 @@
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1201,38 +1225,38 @@
         <v>45252</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>128</v>
-      </c>
       <c r="F8" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="18">
         <v>45255</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1245,85 +1269,105 @@
         <v>45265</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="18">
         <v>45270</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="18">
         <v>45307</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="18">
+        <v>45320</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="18">
+        <v>45329</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1434,25 +1478,25 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A2" zoomScale="61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.09765625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36.299999999999997" x14ac:dyDescent="0.7">
@@ -1460,7 +1504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21.35" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="21.3" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
@@ -1502,13 +1546,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -1528,13 +1572,13 @@
         <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>10</v>
@@ -1548,19 +1592,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>10</v>
@@ -1574,19 +1618,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -1606,13 +1650,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -1623,54 +1667,54 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1684,13 +1728,13 @@
         <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
@@ -1710,13 +1754,13 @@
         <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1780,13 @@
         <v>80</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>10</v>
@@ -1762,13 +1806,13 @@
         <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>10</v>
@@ -1788,13 +1832,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>10</v>
@@ -1805,7 +1849,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -1814,16 +1858,16 @@
         <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -1840,13 +1884,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>10</v>
@@ -1866,13 +1910,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>10</v>
@@ -1892,13 +1936,13 @@
         <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
@@ -1912,71 +1956,71 @@
         <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>140</v>
+      <c r="B22" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>78</v>
@@ -1985,56 +2029,56 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>81</v>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>99</v>
+      <c r="G24" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -2048,10 +2092,10 @@
         <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>151</v>
@@ -2074,13 +2118,13 @@
         <v>67</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>22</v>
@@ -2100,13 +2144,13 @@
         <v>88</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>78</v>
@@ -2114,6 +2158,16 @@
       <c r="I28" s="5" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
